--- a/auxfiles/webdades.xlsx
+++ b/auxfiles/webdades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">idtaula</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">underlyings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mxplattscodes</t>
   </si>
 </sst>
 </file>
@@ -163,7 +166,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -262,7 +265,12 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2"/>
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
     </row>
